--- a/similarities/split_global/harmonic_similarity_timestamps_256.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_256.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:07.360000', '0:00:19.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.580000', '0:00:26.260000')]</t>
+          <t>('0:00:24.760000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:51.620000', '0:02:06.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:24.240000', '0:00:30.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=111.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:09.060000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.880000', '0:00:11.600000'), ('0:00:09.540000', '0:00:12.320000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:39.460000', '0:00:42.740000'), ('0:00:40.500000', '0:00:43.260000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=8.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=39.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=40.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+          <t>('0:00:03.050000', '0:00:08.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:18.010000', '0:00:21.490000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.01</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:27.980000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F/5', 'C:maj', 'D:min7/b7'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:04.555000', '0:00:10.619000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:06.020000', '0:01:08.980000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:11.040000', '0:00:17.480000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=4.555', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=66.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=11.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:34.300000', '0:00:49.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Db', 'D:dim7', 'Ab/5']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Gb', 'G:dim7', 'Db/5']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:21.340000', '0:00:23.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:02:36.770000', '0:02:37.870000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=21.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-57#t=156.77</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C/5', 'G', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+          <t>('0:00:37.239569', '0:00:40.954761')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:12.600000')]</t>
+          <t>('0:00:57.700000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['C/5', 'G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+          <t>('0:00:27.476822', '0:00:36.159841')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:57.860000', '0:01:03.440000')]</t>
+          <t>('0:02:08.160000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=57.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=128.16</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:34.640000', '0:00:39')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:30.020000', '0:00:32.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
